--- a/medicine/Mort/Épitaphe/Épitaphe.xlsx
+++ b/medicine/Mort/Épitaphe/Épitaphe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89pitaphe</t>
+          <t>Épitaphe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une épitaphe  (du grec ἐπιτάφος / epitháphos, de ἐπί / epí, « sur », et τάφος / táphos, « sépulture, tombeau ») est une inscription funéraire, placée sur une pierre tombale ou un monument funéraire, afin de rappeler le souvenir de la personne morte. Elle peut présenter le nom et les dates de la personne défunte, ou un texte qui fait l'éloge de cette personne[1].
-Cela peut être un objet donné à une civilisation comme signe de paix[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une épitaphe  (du grec ἐπιτάφος / epitháphos, de ἐπί / epí, « sur », et τάφος / táphos, « sépulture, tombeau ») est une inscription funéraire, placée sur une pierre tombale ou un monument funéraire, afin de rappeler le souvenir de la personne morte. Elle peut présenter le nom et les dates de la personne défunte, ou un texte qui fait l'éloge de cette personne.
+Cela peut être un objet donné à une civilisation comme signe de paix.
 Dans la Grèce antique, l’épitaphe (epitaphios logos) est un genre littéraire : c’est un éloge funèbre.
 En littérature française, l'épitaphe est aussi un genre littéraire rimé : c'est surtout ce que l'on aimerait inscrire sur la pierre tombale de quelqu'un que l'on admire ou, au contraire, que l'on n'apprécie guère. Supposée être inscrite sur le tombeau lui-même, une épitaphe peut commencer par ci-gît ou par la formule plus moderne ici repose ou par leur pluriel ci-gisent et ici reposent.
 </t>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89pitaphe</t>
+          <t>Épitaphe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,8 +528,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Antiquité
-Diophante d'Alexandrie (env. 200/214 - env. 284/298)
+          <t>Antiquité</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Diophante d'Alexandrie (env. 200/214 - env. 284/298)
 Son épitaphe, attribuée à Métrodore (vers 500), permet de connaître l'âge de Diophante d'Alexandrie à sa mort :
 Passant, sous ce tombeau repose Diophante.
 Ces quelques vers tracés par une main savante
@@ -541,26 +558,162 @@
 Ingrate patrie, tu n’auras pas mes os.
 Homère (VIIIe siècle av. J.-C.)
 J’ai aimé parcourir le chemin à tes côtés.
-Après avoir goûté aux charmes de l’amour, ils goûtèrent toute leur vie au plaisir des confidences.
-XIIe siècle
-Pierre le Mangeur, théologien français mort en 1179.
-J'étais Pierre que la pierre couvre, dit le mangeur, maintenant "mangé". Vivant j'ai enseigné et mort, je ne cesse d'enseigner afin que ceux qui me voient réduit en cendre disent : ce que nous sommes, il le fut ; un jour nous serons ce qu'il est ici.
-XVe siècle
-Jeanne d'Arc (vers 1412-30 mai 1431)
-Inscription, présente sur un des murs du musée consacré à Jeanne d'Arc situé place du  Vieux-Marché de Rouen, lieu de son bûcher et issue du discours d'André Malraux, lu à l'occasion de la commémoration de l'anniversaire de la mort de Jeanne d'Arc, le 30 mai 1964[3].
+Après avoir goûté aux charmes de l’amour, ils goûtèrent toute leur vie au plaisir des confidences.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Épitaphe</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89pitaphe</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Épitaphes célèbres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>XIIe siècle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pierre le Mangeur, théologien français mort en 1179.
+J'étais Pierre que la pierre couvre, dit le mangeur, maintenant "mangé". Vivant j'ai enseigné et mort, je ne cesse d'enseigner afin que ceux qui me voient réduit en cendre disent : ce que nous sommes, il le fut ; un jour nous serons ce qu'il est ici.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Épitaphe</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89pitaphe</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Épitaphes célèbres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>XVe siècle</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Jeanne d'Arc (vers 1412-30 mai 1431)
+Inscription, présente sur un des murs du musée consacré à Jeanne d'Arc situé place du  Vieux-Marché de Rouen, lieu de son bûcher et issue du discours d'André Malraux, lu à l'occasion de la commémoration de l'anniversaire de la mort de Jeanne d'Arc, le 30 mai 1964.
 Ô Jeanne, sans sépulcre et sans portrait, Toi qui savais que le tombeau des héros est le cœur des vivants
-Matthias Corvin (1443-1490) avait composé lui-même son épitaphe[4].
-Mathias iaceo Rex, hac sub mole sepultus; Testatur vires Austria victa meas. Terror eram mundo; metuit me Caesar uterque; Mors potuit tantum sola nocere mihi.[5]
-XVIe siècle
-Raphaël (6 avril 1483-6 avril 1520)
-Ci-gît Raphaël, qui durant sa vie fit craindre à la Nature d'être maîtrisée par lui et, lorsqu'il mourut, de mourir avec lui.[6]
+Matthias Corvin (1443-1490) avait composé lui-même son épitaphe.
+Mathias iaceo Rex, hac sub mole sepultus; Testatur vires Austria victa meas. Terror eram mundo; metuit me Caesar uterque; Mors potuit tantum sola nocere mihi.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Épitaphe</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89pitaphe</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Épitaphes célèbres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>XVIe siècle</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Raphaël (6 avril 1483-6 avril 1520)
+Ci-gît Raphaël, qui durant sa vie fit craindre à la Nature d'être maîtrisée par lui et, lorsqu'il mourut, de mourir avec lui.
 François Rabelais (1483? (d'après un épitaphier) - avril 1553) :
 Pluton ! Rabelais reçois,
 Afin que toi, qui es le roi
 De ceux qui ne rient jamais,
-Tu aies un rieur désormais.
-XVIIe siècle
-Richelieu (9 septembre 1585-4 décembre 1642) :
+Tu aies un rieur désormais.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Épitaphe</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89pitaphe</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Épitaphes célèbres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>XVIIe siècle</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Richelieu (9 septembre 1585-4 décembre 1642) :
 Cy-gist, oui, gist, par la mort-bleu !
 Le cardinal de Richelieu ;
 Et ce qui cause mon ennui,
@@ -603,14 +756,48 @@
 Dieu défit Selles,
 Et aux vers mit Selles.
 René Descartes (1596-1650)
-À la mémoire de René Descartes, plus secret que ses doctrines, prononce en l'éloge ; ainsi que de la subtilité de son esprit très exceptionnel qui le premier, depuis la renaissance des Belles Lettres en Europe, gardant son serment intact à la fidélité sous l'autorité du christianisme, a revendiqué et défendu la raison humaine. Maintenant il est fait un usage remarquable de la vérité qu'il a honorée par-dessus tout.
-XVIIIe siècle
-Louis XIV (1638-1715) reçut plein d'épitaphes moqueuses[7],[8]
+À la mémoire de René Descartes, plus secret que ses doctrines, prononce en l'éloge ; ainsi que de la subtilité de son esprit très exceptionnel qui le premier, depuis la renaissance des Belles Lettres en Europe, gardant son serment intact à la fidélité sous l'autorité du christianisme, a revendiqué et défendu la raison humaine. Maintenant il est fait un usage remarquable de la vérité qu'il a honorée par-dessus tout.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Épitaphe</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89pitaphe</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Épitaphes célèbres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>XVIIIe siècle</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Louis XIV (1638-1715) reçut plein d'épitaphes moqueuses,
 Ci-gît notre invincible roi,
 Qui meurt pour un acte de foi.
 Il est mort comme il a vécu,
 Sans nous laisser un quart d’écu.
-L'inscription qui fut réellement portée sur son cercueil fut[9] :
+L'inscription qui fut réellement portée sur son cercueil fut :
 Ici est le corps de Louis 14 par la grâce de Dieu ROY DE France et de Navarre, très-chrétien, décédé en son chasteau de Versailles le premier jour de septembre 1715.
 John Law de Lauriston (1671-1729)
 Ci gît cet Écossais célèbre
@@ -637,17 +824,51 @@
 dans une nouvelle édition, plus élégante,
 revue et corrigée
 par l'auteur.
-Louis-Philippe d'Orléans, ou "Philippe Égalité", fut inhumé dans une fosse commune du cimetière de la Madeleine, ce qui n’empêcha pas des royalistes de rédiger des épitaphes insultantes envers lui[10].
+Louis-Philippe d'Orléans, ou "Philippe Égalité", fut inhumé dans une fosse commune du cimetière de la Madeleine, ce qui n’empêcha pas des royalistes de rédiger des épitaphes insultantes envers lui.
 Vil scélérat exécrable en tout lieu,
 Tu péris donc des mains de tes complices.
 En recevant le prix des forfaits et des vices
 Monstre tu meurs, , , .. Il est un Dieu.
 Robespierre (6 mai 1758-28 juillet 1794)
-Épitaphe posthume, qui évidemment n'est pas sur la tombe de Robespierre, celui-ci ayant été enterré dans une fosse commune au cimetière des Errancis[11],[12],[13] : Des épitaphes semblables furent aussi rédigées pour Marat[14] ou Napoléon[15].
+Épitaphe posthume, qui évidemment n'est pas sur la tombe de Robespierre, celui-ci ayant été enterré dans une fosse commune au cimetière des Errancis : Des épitaphes semblables furent aussi rédigées pour Marat ou Napoléon.
 Passant, ne plains pas mon sort
-Moi vivant, tu serais mort…
-XIXe siècle
-John Keats (31 octobre 1795-23 février 1821)
+Moi vivant, tu serais mort…</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Épitaphe</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89pitaphe</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Épitaphes célèbres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>XIXe siècle</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>John Keats (31 octobre 1795-23 février 1821)
 Here lies one whose name was writ in water.
 (« Ici repose celui dont le nom était écrit dans l'eau »)
 Alfred de Musset (11 décembre 1810-2 mai 1857) :
@@ -668,9 +889,43 @@
 In Loving Memory of my Beloved Son, Murdered by a Traitor and Coward Whose Name is not Worthy to Appear Here.
 (« À la mémoire de mon fils aimé, assassiné par un traître et lâche dont le nom ne mérite pas de figurer ici. »)
 Alfred Sisley (30 octobre 1839-29 janvier 1899), par lui-même :
-Il faut que les objets soient enveloppés de lumière, comme ils le sont dans la nature.
-XXe siècle
-Alphonse Allais (1854 - 1905)
+Il faut que les objets soient enveloppés de lumière, comme ils le sont dans la nature.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Épitaphe</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89pitaphe</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Épitaphes célèbres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>XXe siècle</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Alphonse Allais (1854 - 1905)
 Ci-gît Allais - sans retour.
 Pierre Savorgnan de Brazza (26 janvier 1852-14 septembre 1905) :
 Une mémoire pure de sang humain.
@@ -720,16 +975,50 @@
 Eugène Ionesco (1909-1994)
 Priez le Je ne sais Qui — j'espère Jésus Christ
 Claude Sautet (1924-2000)
-Garder le CAlme !!! Devant la DISSONANCE !!!
-XXIe siècle
-Françoise Sagan (1935-2004), elle écrit sa propre épitaphe en 1998 à la suite de la proposition d'un journaliste :
+Garder le CAlme !!! Devant la DISSONANCE !!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Épitaphe</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89pitaphe</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Épitaphes célèbres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>XXIe siècle</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Françoise Sagan (1935-2004), elle écrit sa propre épitaphe en 1998 à la suite de la proposition d'un journaliste :
 Sagan Françoise. Fit son apparition en 1954, avec un mince roman, Bonjour tristesse, qui fut un scandale mondial. Sa disparition, après une vie et une œuvre également agréable et bâclée, ne fut un scandale que pour elle-même.
 Grisélidis Réal (1929-2005)
 Écrivain, peintre, prostituée (Cimetière des Rois, Genève)
 Armand Fernandez (1928-2005)
 Enfin seul ! (Cimetière du Père-Lachaise)
 Valéry Giscard d'Estaing (1926-2020)
-« In te Domine speravi non confundar in aeternum » (« En vous, Seigneur, j'ai mis mon espérance : jamais je ne serai déçu », Psaumes, 31)[16].</t>
+« In te Domine speravi non confundar in aeternum » (« En vous, Seigneur, j'ai mis mon espérance : jamais je ne serai déçu », Psaumes, 31).</t>
         </is>
       </c>
     </row>
